--- a/biology/Zoologie/Hermeuptychia/Hermeuptychia.xlsx
+++ b/biology/Zoologie/Hermeuptychia/Hermeuptychia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermeuptychia est un genre américain de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hermeuptychia a été décrit par l'entomologiste allemand Walter Forster en 1964[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hermeuptychia a été décrit par l'entomologiste allemand Walter Forster en 1964.
 Son espèce type est Papilio hermes Fabricius, 1775.
 			Hermeuptychia harmonia.
 			Hermeuptychia sosybius.
@@ -545,16 +559,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après FUNET Tree of Life  (14 avril 2019)[2] et Cong &amp; Grishin, 2014[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après FUNET Tree of Life  (14 avril 2019) et Cong &amp; Grishin, 2014 :
 Hermeuptychia atalanta (Butler, 1867) — Venezuela.
 Hermeuptychia cucullina (Weymer, 1911) — Bolivie.
 Hermeuptychia fallax (C. et R. Felder, 1862) — Pérou, Brésil.
 Hermeuptychia harmonia (Butler, 1867) — Costa Rica, Équateur, Colombie.
 Hermeuptychia hermes (Fabricius, 1775) — Brésil, Suriname, Bolivie, Guyane.
-Hermeuptychia hermybius Grishin, 2014 — Sud du Texas, Nord-Est du Mexique[3].
-Hermeuptychia intricata Grishin, 2014 — Sud-Est des États-Unis[3].
+Hermeuptychia hermybius Grishin, 2014 — Sud du Texas, Nord-Est du Mexique.
+Hermeuptychia intricata Grishin, 2014 — Sud-Est des États-Unis.
 Hermeuptychia maimoune (Butler, 1870) — Pérou.
 Hermeuptychia pimpla (C. &amp; R. Felder, 1862) — Pérou.
 Hermeuptychia sosybius (Fabricius, 1793) — Sud-Est des États-Unis, Mexique.
